--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/Materiały_Szkoleniowe/Model_I_Lipiec/NCAE_2022_S1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podsk\Desktop\Inzynierka\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1908408C0DD2C4CF1FF5335FA779D741CDBC0C57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356C208-0A7E-4727-91D8-C80A0B4CE746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34777" windowHeight="14930" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BILANS" sheetId="141" r:id="rId1"/>
@@ -1293,33 +1293,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="27">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0."/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="178" formatCode="#.00"/>
-    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="181" formatCode="yyyy"/>
-    <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="184" formatCode="#,##0___)"/>
-    <numFmt numFmtId="185" formatCode="#,##0.000___)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.000000"/>
-    <numFmt numFmtId="188" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0."/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="#.00"/>
+    <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="182" formatCode="yyyy"/>
+    <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="185" formatCode="#,##0___)"/>
+    <numFmt numFmtId="186" formatCode="#,##0.000___)"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="0.000000"/>
+    <numFmt numFmtId="189" formatCode="0.00000"/>
   </numFmts>
   <fonts count="118">
     <font>
@@ -3118,7 +3118,7 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="5" fillId="20" borderId="1">
+    <xf numFmtId="175" fontId="5" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3226,15 +3226,15 @@
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3274,15 +3274,15 @@
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3304,18 +3304,18 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
@@ -3522,8 +3522,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="76" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3639,7 +3639,7 @@
     <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4036,15 +4036,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4054,7 +4054,7 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -4212,12 +4212,12 @@
     <xf numFmtId="0" fontId="55" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="76" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="76" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="98" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="98" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -4247,7 +4247,7 @@
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4277,41 +4277,41 @@
     <xf numFmtId="0" fontId="10" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="8" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="8" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="44" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="44" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="44" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="44" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1243" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="3" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="39" borderId="21" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="21" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="19" xfId="800" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4346,25 +4346,25 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="25" xfId="1245" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="10" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="26" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="112" fillId="0" borderId="10" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="112" fillId="0" borderId="26" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="112" fillId="0" borderId="10" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="27" xfId="1244" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="112" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="113" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="113" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="28" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="112" fillId="0" borderId="28" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="22" xfId="1244" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4374,14 +4374,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="25" xfId="1244" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="112" fillId="0" borderId="26" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="112" fillId="0" borderId="26" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="27" xfId="1244" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="11" xfId="1244" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="112" fillId="0" borderId="28" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="112" fillId="0" borderId="28" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="1244" applyFont="1" applyAlignment="1">
@@ -4394,9 +4394,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="44" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="44" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="47" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="44" fillId="47" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="44" fillId="47" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="46" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="21" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4405,15 +4405,12 @@
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="186" fontId="5" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="100" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="186" fontId="100" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="791" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="5" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="100" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="791" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="21" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4422,10 +4419,13 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="183" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="187" fontId="100" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="100" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="100" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1247">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5769,7 +5769,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -6247,11 +6247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="40" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="40" customWidth="1"/>
@@ -6265,17 +6265,17 @@
     <col min="10" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6">
+    <row r="2" spans="2:9" ht="15">
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.25" thickBot="1">
+    <row r="4" spans="2:9" ht="13.5" thickBot="1">
       <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="51.6">
+    <row r="5" spans="2:9" ht="51">
       <c r="B5" s="42"/>
       <c r="C5" s="43" t="s">
         <v>2</v>
@@ -6299,7 +6299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.350000000000001">
+    <row r="6" spans="2:9" ht="15.75">
       <c r="B6" s="45"/>
       <c r="C6" s="46" t="s">
         <v>7</v>
@@ -6323,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15">
+    <row r="7" spans="2:9" ht="15.75">
       <c r="B7" s="48" t="s">
         <v>14</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="2:9" ht="15">
+    <row r="8" spans="2:9" ht="15.75">
       <c r="B8" s="48" t="s">
         <v>15</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="H8" s="49"/>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="2:9" ht="15">
+    <row r="9" spans="2:9" ht="15.75">
       <c r="B9" s="48" t="s">
         <v>16</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="H9" s="49"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="2:9" ht="15">
+    <row r="10" spans="2:9" ht="15.75">
       <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>32467</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15">
+    <row r="11" spans="2:9" ht="15.75">
       <c r="B11" s="48" t="s">
         <v>18</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="2:9" ht="15">
+    <row r="12" spans="2:9" ht="15.75">
       <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
@@ -6439,8 +6439,8 @@
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="2:9" ht="15">
-      <c r="B13" s="82" t="s">
+    <row r="13" spans="2:9" ht="15.75">
+      <c r="B13" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="51">
@@ -6459,7 +6459,7 @@
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" thickBot="1">
+    <row r="14" spans="2:9" ht="13.5" thickBot="1">
       <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
@@ -6478,33 +6478,33 @@
       <c r="I14" s="55"/>
     </row>
     <row r="15" spans="2:9" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.7">
+    <row r="18" spans="2:5">
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
     </row>
-    <row r="19" spans="2:5" ht="13.7">
+    <row r="19" spans="2:5">
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="2:5" ht="14.25" thickBot="1">
+    <row r="20" spans="2:5" ht="13.5" thickBot="1">
       <c r="B20" s="41" t="s">
         <v>25</v>
       </c>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="E21" s="41"/>
     </row>
-    <row r="22" spans="2:5" ht="13.7">
+    <row r="22" spans="2:5">
       <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="2:5" ht="13.7">
+    <row r="23" spans="2:5">
       <c r="B23" s="58" t="s">
         <v>31</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="E23" s="41"/>
     </row>
-    <row r="24" spans="2:5" ht="14.25" thickBot="1">
+    <row r="24" spans="2:5" ht="13.5" thickBot="1">
       <c r="B24" s="60" t="s">
         <v>33</v>
       </c>
@@ -6560,27 +6560,27 @@
       </c>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="2:5" ht="13.7">
-      <c r="B25" s="84" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="63"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="2:5" ht="13.7">
+    <row r="26" spans="2:5">
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="63"/>
       <c r="E26" s="41"/>
     </row>
-    <row r="27" spans="2:5" ht="13.7">
+    <row r="27" spans="2:5">
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="63"/>
       <c r="E27" s="41"/>
     </row>
-    <row r="28" spans="2:5" ht="14.25" thickBot="1">
+    <row r="28" spans="2:5" ht="13.5" thickBot="1">
       <c r="B28" s="41" t="s">
         <v>36</v>
       </c>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="E29" s="41"/>
     </row>
-    <row r="30" spans="2:5" ht="13.7">
+    <row r="30" spans="2:5">
       <c r="B30" s="58" t="s">
         <v>31</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="E30" s="41"/>
     </row>
-    <row r="31" spans="2:5" ht="14.25" thickBot="1">
+    <row r="31" spans="2:5" ht="13.5" thickBot="1">
       <c r="B31" s="60" t="s">
         <v>33</v>
       </c>
@@ -6626,21 +6626,21 @@
       </c>
       <c r="E31" s="41"/>
     </row>
-    <row r="32" spans="2:5" ht="13.7">
-      <c r="B32" s="84" t="s">
+    <row r="32" spans="2:5">
+      <c r="B32" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
     </row>
-    <row r="33" spans="2:5" ht="13.7">
+    <row r="33" spans="2:5">
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
     </row>
-    <row r="36" spans="2:5" ht="13.7">
+    <row r="36" spans="2:5">
       <c r="B36" s="41"/>
     </row>
   </sheetData>
@@ -6658,7 +6658,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -6673,13 +6673,13 @@
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6">
+    <row r="2" spans="2:9" ht="15">
       <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.399999999999999">
-      <c r="B4" s="85" t="s">
+    <row r="4" spans="2:9" ht="18">
+      <c r="B4" s="84" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="16"/>
@@ -6869,7 +6869,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -6889,7 +6889,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="19"/>
@@ -6901,7 +6901,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="2:10" ht="13.7">
+    <row r="5" spans="2:10">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -6954,7 +6954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="39.4" thickBot="1">
+    <row r="8" spans="2:10" ht="39" thickBot="1">
       <c r="B8" s="34" t="s">
         <v>85</v>
       </c>
@@ -6976,10 +6976,10 @@
       <c r="H8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="80" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -7062,14 +7062,14 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.399999999999999">
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="2:7" ht="18">
+      <c r="B2" s="84" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="13.7">
+    <row r="3" spans="2:7">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
@@ -7182,11 +7182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:AU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -7201,8 +7201,8 @@
     <col min="18" max="18" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" ht="19.149999999999999" thickBot="1">
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="2:47" ht="18.75" thickBot="1">
+      <c r="B2" s="84" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="15"/>
@@ -7407,7 +7407,7 @@
         <v>1.4699559247693428</v>
       </c>
     </row>
-    <row r="4" spans="2:47" ht="14.25" thickBot="1">
+    <row r="4" spans="2:47" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0.89020775816038067</v>
       </c>
     </row>
-    <row r="5" spans="2:47" ht="13.7">
+    <row r="5" spans="2:47">
       <c r="B5" s="37" t="s">
         <v>45</v>
       </c>
@@ -7542,31 +7542,44 @@
       <c r="B6" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="2:47" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="22" t="str">
         <f>SEC_Comm!C11</f>
         <v>ELE_UZYTEK</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="86">
         <f>BILANS!D30*3.6</f>
         <v>422.42837571324009</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="87">
+        <f>V19</f>
+        <v>442.87257867120712</v>
+      </c>
+      <c r="E7" s="87">
+        <v>462.47721517321799</v>
+      </c>
+      <c r="F7" s="87">
+        <v>481.3362602550169</v>
+      </c>
+      <c r="G7" s="87">
+        <v>498.93026010214533</v>
+      </c>
+      <c r="H7" s="87">
+        <v>512.24855494672215</v>
+      </c>
+      <c r="I7" s="87">
+        <v>521.68973469180355</v>
+      </c>
       <c r="O7" s="65" t="s">
         <v>77</v>
       </c>
@@ -7588,16 +7601,29 @@
         <f>SEC_Comm!C12</f>
         <v>CIEP_UZYTEK</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="78">
         <f>BILANS!D31</f>
         <v>202.96761239999998</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="D8" s="88">
+        <f>V20</f>
+        <v>198.82862265548212</v>
+      </c>
+      <c r="E8" s="88">
+        <v>195.86754637286177</v>
+      </c>
+      <c r="F8" s="88">
+        <v>192.0979961963979</v>
+      </c>
+      <c r="G8" s="88">
+        <v>187.79498938556307</v>
+      </c>
+      <c r="H8" s="88">
+        <v>183.26682137390455</v>
+      </c>
+      <c r="I8" s="88">
+        <v>178.65366708976907</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="O8" s="66" t="s">
         <v>95</v>
@@ -7634,7 +7660,7 @@
       </c>
     </row>
     <row r="10" spans="2:47" ht="15.75" customHeight="1"/>
-    <row r="11" spans="2:47" ht="14.25" thickBot="1">
+    <row r="11" spans="2:47" ht="13.5" thickBot="1">
       <c r="P11" s="65" t="s">
         <v>155</v>
       </c>
@@ -7928,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:47" ht="14.25" thickBot="1">
+    <row r="14" spans="2:47" ht="13.5" thickBot="1">
       <c r="C14" s="3" t="s">
         <v>156</v>
       </c>
@@ -8062,7 +8088,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="2:47" ht="13.7" thickBot="1">
+    <row r="15" spans="2:47" ht="13.5" thickBot="1">
       <c r="B15" s="12" t="s">
         <v>45</v>
       </c>
@@ -8078,7 +8104,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:47" ht="65.25">
+    <row r="16" spans="2:47" ht="67.5">
       <c r="B16" s="13" t="s">
         <v>147</v>
       </c>
@@ -8102,7 +8128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:47" ht="14.25" thickBot="1">
+    <row r="17" spans="2:47" ht="13.5" thickBot="1">
       <c r="B17" s="11" t="str">
         <f>SEC_Comm!C11</f>
         <v>ELE_UZYTEK</v>
@@ -8110,7 +8136,7 @@
       <c r="C17" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G17" s="11" t="str">
@@ -8120,7 +8146,7 @@
       <c r="H17" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="80">
+      <c r="I17" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="O17" s="65" t="s">
@@ -8229,7 +8255,7 @@
       <c r="C18" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G18" s="11" t="str">
@@ -8239,7 +8265,7 @@
       <c r="H18" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="O18" s="72" t="s">
@@ -8286,7 +8312,7 @@
       <c r="C19" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G19" s="11" t="str">
@@ -8296,7 +8322,7 @@
       <c r="H19" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="80">
+      <c r="I19" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="O19" t="s">
@@ -8435,7 +8461,7 @@
       <c r="C20" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G20" s="11" t="str">
@@ -8445,7 +8471,7 @@
       <c r="H20" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="80">
+      <c r="I20" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="O20" t="s">
@@ -8584,7 +8610,7 @@
       <c r="C21" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G21" s="11" t="str">
@@ -8594,7 +8620,7 @@
       <c r="H21" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8606,7 +8632,7 @@
       <c r="C22" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G22" s="11" t="str">
@@ -8616,7 +8642,7 @@
       <c r="H22" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8628,7 +8654,7 @@
       <c r="C23" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G23" s="11" t="str">
@@ -8638,7 +8664,7 @@
       <c r="H23" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8650,7 +8676,7 @@
       <c r="C24" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G24" s="11" t="str">
@@ -8660,7 +8686,7 @@
       <c r="H24" t="s">
         <v>169</v>
       </c>
-      <c r="I24" s="80">
+      <c r="I24" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8672,7 +8698,7 @@
       <c r="C25" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G25" s="11" t="str">
@@ -8682,7 +8708,7 @@
       <c r="H25" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8694,7 +8720,7 @@
       <c r="C26" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G26" s="11" t="str">
@@ -8704,7 +8730,7 @@
       <c r="H26" t="s">
         <v>171</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8716,7 +8742,7 @@
       <c r="C27" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G27" s="11" t="str">
@@ -8726,7 +8752,7 @@
       <c r="H27" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="80">
+      <c r="I27" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8738,7 +8764,7 @@
       <c r="C28" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G28" s="11" t="str">
@@ -8748,7 +8774,7 @@
       <c r="H28" t="s">
         <v>173</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8760,7 +8786,7 @@
       <c r="C29" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="80">
+      <c r="D29" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G29" s="11" t="str">
@@ -8770,7 +8796,7 @@
       <c r="H29" t="s">
         <v>174</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8782,7 +8808,7 @@
       <c r="C30" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G30" s="11" t="str">
@@ -8792,7 +8818,7 @@
       <c r="H30" t="s">
         <v>175</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8804,7 +8830,7 @@
       <c r="C31" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="80">
+      <c r="D31" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G31" s="11" t="str">
@@ -8814,7 +8840,7 @@
       <c r="H31" t="s">
         <v>176</v>
       </c>
-      <c r="I31" s="80">
+      <c r="I31" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8826,7 +8852,7 @@
       <c r="C32" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G32" s="11" t="str">
@@ -8836,7 +8862,7 @@
       <c r="H32" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="80">
+      <c r="I32" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8848,7 +8874,7 @@
       <c r="C33" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="80">
+      <c r="D33" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G33" s="11" t="str">
@@ -8858,7 +8884,7 @@
       <c r="H33" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8870,7 +8896,7 @@
       <c r="C34" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G34" s="11" t="str">
@@ -8880,7 +8906,7 @@
       <c r="H34" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="80">
+      <c r="I34" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8892,7 +8918,7 @@
       <c r="C35" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G35" s="11" t="str">
@@ -8902,7 +8928,7 @@
       <c r="H35" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8914,7 +8940,7 @@
       <c r="C36" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="80">
+      <c r="D36" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G36" s="11" t="str">
@@ -8924,7 +8950,7 @@
       <c r="H36" t="s">
         <v>181</v>
       </c>
-      <c r="I36" s="80">
+      <c r="I36" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8936,7 +8962,7 @@
       <c r="C37" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="80">
+      <c r="D37" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G37" s="11" t="str">
@@ -8946,7 +8972,7 @@
       <c r="H37" t="s">
         <v>182</v>
       </c>
-      <c r="I37" s="80">
+      <c r="I37" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8958,7 +8984,7 @@
       <c r="C38" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G38" s="11" t="str">
@@ -8968,7 +8994,7 @@
       <c r="H38" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="80">
+      <c r="I38" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8980,7 +9006,7 @@
       <c r="C39" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D39" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G39" s="11" t="str">
@@ -8990,7 +9016,7 @@
       <c r="H39" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="80">
+      <c r="I39" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -9002,7 +9028,7 @@
       <c r="C40" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G40" s="11" t="str">
@@ -9012,7 +9038,7 @@
       <c r="H40" t="s">
         <v>185</v>
       </c>
-      <c r="I40" s="80">
+      <c r="I40" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -9024,7 +9050,7 @@
       <c r="C41" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="80">
+      <c r="D41" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G41" s="11" t="str">
@@ -9034,7 +9060,7 @@
       <c r="H41" t="s">
         <v>186</v>
       </c>
-      <c r="I41" s="80">
+      <c r="I41" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -9046,7 +9072,7 @@
       <c r="C42" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -9056,7 +9082,7 @@
       <c r="H42" t="s">
         <v>187</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -9068,7 +9094,7 @@
       <c r="C43" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="80">
+      <c r="D43" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -9078,7 +9104,7 @@
       <c r="H43" t="s">
         <v>188</v>
       </c>
-      <c r="I43" s="80">
+      <c r="I43" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -9090,7 +9116,7 @@
       <c r="C44" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="80">
+      <c r="D44" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -9100,7 +9126,7 @@
       <c r="H44" t="s">
         <v>189</v>
       </c>
-      <c r="I44" s="80">
+      <c r="I44" s="79">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -9116,6 +9142,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -9358,34 +9404,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39C5152-CCF0-454E-BB69-7F0E92252EBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39C5152-CCF0-454E-BB69-7F0E92252EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>